--- a/Gripper parts doc.xlsx
+++ b/Gripper parts doc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Parts</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.mcmaster.com/#74965k51/=y9524i </t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Pin Servo Connector, 10 cm long </t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Generic-Extension-Cable-Eagle-Control/dp/B00DU49YOQ/ref=sr_1_3?ie=UTF8&amp;qid=1438391556&amp;sr=8-3&amp;keywords=servo+connector</t>
   </si>
 </sst>
 </file>
@@ -473,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,6 +648,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1" location="7189k31/=y94ngd"/>
@@ -652,9 +677,10 @@
     <hyperlink ref="C4" r:id="rId9" location="8560k354/=y94xk8"/>
     <hyperlink ref="C5" r:id="rId10" location="8560k239/=y94x85"/>
     <hyperlink ref="C16" r:id="rId11" location="74965k51/=y9524i "/>
+    <hyperlink ref="C21" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/Gripper parts doc.xlsx
+++ b/Gripper parts doc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Parts</t>
   </si>
@@ -36,18 +36,9 @@
     <t xml:space="preserve">Hardware </t>
   </si>
   <si>
-    <t xml:space="preserve">M5 316 stainless threaded rod (cut to 215mm) </t>
-  </si>
-  <si>
     <t>M3 nylon nut</t>
   </si>
   <si>
-    <t xml:space="preserve">M5 316 stainless lock nuts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5 316  stainless jam nuts </t>
-  </si>
-  <si>
     <t xml:space="preserve">M3 x 20 nylon machine screw </t>
   </si>
   <si>
@@ -66,19 +57,10 @@
     <t xml:space="preserve">http://www.mcmaster.com/#9287k209/=y94pdr </t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.mcmaster.com/#94150a340/=y94qxj </t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.mcmaster.com/#94205a240/=y94ray </t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.mcmaster.com/#94270a128/=y94sc7 </t>
   </si>
   <si>
     <t xml:space="preserve">http://www.mcmaster.com/#nylon-nuts/=y94rx1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.mcmaster.com/#94185a150/=y94sv7 </t>
   </si>
   <si>
     <t>Fasteners</t>
@@ -482,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -515,172 +497,136 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>15</v>
+      <c r="A17" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" location="7189k31/=y94ngd"/>
-    <hyperlink ref="C17" r:id="rId2" location="9287k209/=y94pdr "/>
-    <hyperlink ref="C12" r:id="rId3" location="94150a340/=y94qxj "/>
-    <hyperlink ref="C11" r:id="rId4" location="94205a240/=y94ray "/>
-    <hyperlink ref="C10" r:id="rId5" location="94270a128/=y94sc7 "/>
-    <hyperlink ref="C9" r:id="rId6" location="nylon-nuts/=y94rx1 "/>
-    <hyperlink ref="C15" r:id="rId7" location="94185a150/=y94sv7 "/>
-    <hyperlink ref="C6" r:id="rId8" location="8505k91/=y94vtu "/>
-    <hyperlink ref="C4" r:id="rId9" location="8560k354/=y94xk8"/>
-    <hyperlink ref="C5" r:id="rId10" location="8560k239/=y94x85"/>
-    <hyperlink ref="C16" r:id="rId11" location="74965k51/=y9524i "/>
-    <hyperlink ref="C21" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId1" location="7189k31/=y94ngd"/>
+    <hyperlink ref="C14" r:id="rId2" location="9287k209/=y94pdr "/>
+    <hyperlink ref="C10" r:id="rId3" location="94270a128/=y94sc7 "/>
+    <hyperlink ref="C9" r:id="rId4" location="nylon-nuts/=y94rx1 "/>
+    <hyperlink ref="C6" r:id="rId5" location="8505k91/=y94vtu "/>
+    <hyperlink ref="C4" r:id="rId6" location="8560k354/=y94xk8"/>
+    <hyperlink ref="C5" r:id="rId7" location="8560k239/=y94x85"/>
+    <hyperlink ref="C13" r:id="rId8" location="74965k51/=y9524i "/>
+    <hyperlink ref="C18" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Gripper parts doc.xlsx
+++ b/Gripper parts doc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Parts</t>
   </si>
@@ -97,13 +97,19 @@
   </si>
   <si>
     <t>http://www.amazon.com/Generic-Extension-Cable-Eagle-Control/dp/B00DU49YOQ/ref=sr_1_3?ie=UTF8&amp;qid=1438391556&amp;sr=8-3&amp;keywords=servo+connector</t>
+  </si>
+  <si>
+    <t>M5 316 stainless nuts</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#93935A330</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +138,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -162,6 +174,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -464,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,68 +578,80 @@
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" location="7189k31/=y94ngd"/>
-    <hyperlink ref="C14" r:id="rId2" location="9287k209/=y94pdr "/>
+    <hyperlink ref="C16" r:id="rId1" location="7189k31/=y94ngd"/>
+    <hyperlink ref="C15" r:id="rId2" location="9287k209/=y94pdr "/>
     <hyperlink ref="C10" r:id="rId3" location="94270a128/=y94sc7 "/>
     <hyperlink ref="C9" r:id="rId4" location="nylon-nuts/=y94rx1 "/>
     <hyperlink ref="C6" r:id="rId5" location="8505k91/=y94vtu "/>
     <hyperlink ref="C4" r:id="rId6" location="8560k354/=y94xk8"/>
     <hyperlink ref="C5" r:id="rId7" location="8560k239/=y94x85"/>
-    <hyperlink ref="C13" r:id="rId8" location="74965k51/=y9524i "/>
-    <hyperlink ref="C18" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId8" location="74965k51/=y9524i "/>
+    <hyperlink ref="C19" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10" location="93935A330" display="http://www.mcmaster.com/ - 93935A330"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
